--- a/biology/Médecine/Conception_libre_de_médicaments/Conception_libre_de_médicaments.xlsx
+++ b/biology/Médecine/Conception_libre_de_médicaments/Conception_libre_de_médicaments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conception_libre_de_m%C3%A9dicaments</t>
+          <t>Conception_libre_de_médicaments</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La conception libre de médicaments est une pratique nouvelle aux États-Unis, qui utilise la biotechnologie et particulièrement la bio-informatique pour concevoir des médicaments sous licence libre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conception_libre_de_m%C3%A9dicaments</t>
+          <t>Conception_libre_de_médicaments</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Pink Army</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">S'inscrivant dans les mouvements « Do it yourself » et de l'open source, la conception libre de médicaments est promue notamment par la Start up Pink army[1],[2], fondée en 2009 par le biologiste canadien Andrew Aiselle. Celui-ci soutient que l'industrie pharmaceutique classique, dans laquelle il a travaillé, vise seulement à produire « des variantes de médicaments existants, pour prolonger les brevets ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S'inscrivant dans les mouvements « Do it yourself » et de l'open source, la conception libre de médicaments est promue notamment par la Start up Pink army fondée en 2009 par le biologiste canadien Andrew Aiselle. Celui-ci soutient que l'industrie pharmaceutique classique, dans laquelle il a travaillé, vise seulement à produire « des variantes de médicaments existants, pour prolonger les brevets ».
 Cette entreprise est une coopérative qui entend concevoir des médicaments sur-mesure contre le cancer du sein grâce à la biologie de synthèse et à la virothérapie, puis diffuser librement les connaissances acquises.
-Des questions éthiques peuvent se poser quant à ce nouveau domaine de recherche, dans la mesure où les médicaments créés sur mesure ne pourront pas être testés avant administration et où « chaque patiente sera son propre cobaye et assumera les risques en connaissance de cause »[1].
+Des questions éthiques peuvent se poser quant à ce nouveau domaine de recherche, dans la mesure où les médicaments créés sur mesure ne pourront pas être testés avant administration et où « chaque patiente sera son propre cobaye et assumera les risques en connaissance de cause ».
 </t>
         </is>
       </c>
